--- a/public/d1taulu.xlsx
+++ b/public/d1taulu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://spph-my.sharepoint.com/personal/ari_lehtinen_spph_fi/Documents/Opiskelu/Opinnäyte/LaskuriReact/laskuri/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A1723E8-4287-4079-BD01-A8135EC91997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="8_{8A1723E8-4287-4079-BD01-A8135EC91997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{894722DC-B194-4D19-8931-B41F2730810E}"/>
   <bookViews>
-    <workbookView xWindow="-33375" yWindow="4200" windowWidth="28800" windowHeight="15285" xr2:uid="{39542280-6498-4767-9F7F-7496B9E2D4FE}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{39542280-6498-4767-9F7F-7496B9E2D4FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Al 4 x 16</t>
   </si>
@@ -119,19 +119,112 @@
     <t>Cu 4 x 300</t>
   </si>
   <si>
-    <t>kaapeli</t>
-  </si>
-  <si>
     <t>ala</t>
   </si>
   <si>
-    <t xml:space="preserve">resistanssi </t>
-  </si>
-  <si>
     <t>reaktanssi</t>
   </si>
   <si>
-    <t>impedanssi</t>
+    <t>resistanssid180</t>
+  </si>
+  <si>
+    <t>kerroin</t>
+  </si>
+  <si>
+    <t>impedansid180</t>
+  </si>
+  <si>
+    <t>potenssi</t>
+  </si>
+  <si>
+    <t>resreak20</t>
+  </si>
+  <si>
+    <t>kaapeli4</t>
+  </si>
+  <si>
+    <t>kaapeli5</t>
+  </si>
+  <si>
+    <t>Al 5 x 25</t>
+  </si>
+  <si>
+    <t>Al 5 x 35</t>
+  </si>
+  <si>
+    <t>Al 5 x 70</t>
+  </si>
+  <si>
+    <t>Al 5 x 95</t>
+  </si>
+  <si>
+    <t>Al 5 x 120</t>
+  </si>
+  <si>
+    <t>Al 5 x 150</t>
+  </si>
+  <si>
+    <t>Al 5 x 185</t>
+  </si>
+  <si>
+    <t>Al 5 x 240</t>
+  </si>
+  <si>
+    <t>Al 5 x 300</t>
+  </si>
+  <si>
+    <t>Cu 5 x 1,5</t>
+  </si>
+  <si>
+    <t>Cu 5 x 2,5</t>
+  </si>
+  <si>
+    <t>Cu 5 x 4</t>
+  </si>
+  <si>
+    <t>Cu 5 x 6</t>
+  </si>
+  <si>
+    <t>Cu 5 x 10</t>
+  </si>
+  <si>
+    <t>Cu 5 x 16</t>
+  </si>
+  <si>
+    <t>Cu 5 x 25</t>
+  </si>
+  <si>
+    <t>Cu 5 x 35</t>
+  </si>
+  <si>
+    <t>Cu 5 x 50</t>
+  </si>
+  <si>
+    <t>Cu 5 x 70</t>
+  </si>
+  <si>
+    <t>Cu 5 x 95</t>
+  </si>
+  <si>
+    <t>Cu 5 x 120</t>
+  </si>
+  <si>
+    <t>Cu 5 x 150</t>
+  </si>
+  <si>
+    <t>Cu 5 x 185</t>
+  </si>
+  <si>
+    <t>Cu 5 x 240</t>
+  </si>
+  <si>
+    <t>Cu 5 x 300</t>
+  </si>
+  <si>
+    <t>Al 5 x 16</t>
+  </si>
+  <si>
+    <t>Al 5 x 50</t>
   </si>
 </sst>
 </file>
@@ -182,7 +275,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -198,7 +291,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-teema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -514,488 +607,828 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6079CB0-2D43-47F1-99BF-9F2581BCC979}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2">
         <v>16</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>2.3239999999999998</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>0.09</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>2.3260000000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G2">
+        <v>35.898000000000003</v>
+      </c>
+      <c r="H2">
+        <v>-0.98499999999999999</v>
+      </c>
+      <c r="I2">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3">
         <v>25</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>1.4890000000000001</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>1.492</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <v>35.898000000000003</v>
+      </c>
+      <c r="H3">
+        <v>-0.98499999999999999</v>
+      </c>
+      <c r="I3">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4">
         <v>35</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>1.0860000000000001</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>1.089</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <v>35.898000000000003</v>
+      </c>
+      <c r="H4">
+        <v>-0.98499999999999999</v>
+      </c>
+      <c r="I4">
+        <v>0.86799999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5">
         <v>50</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.79600000000000004</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <v>35.898000000000003</v>
+      </c>
+      <c r="H5">
+        <v>-0.98499999999999999</v>
+      </c>
+      <c r="I5">
+        <v>0.64100000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6">
         <v>70</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>0.55100000000000005</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>0.55700000000000005</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <v>35.898000000000003</v>
+      </c>
+      <c r="H6">
+        <v>-0.98499999999999999</v>
+      </c>
+      <c r="I6">
+        <v>0.443</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7">
         <v>95</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>0.39800000000000002</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>0.40600000000000003</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <v>35.898000000000003</v>
+      </c>
+      <c r="H7">
+        <v>-0.98499999999999999</v>
+      </c>
+      <c r="I7">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8">
         <v>120</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.316</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>0.08</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>0.32600000000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <v>35.898000000000003</v>
+      </c>
+      <c r="H8">
+        <v>-0.98499999999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9">
         <v>150</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.25800000000000001</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>0.08</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <v>35.898000000000003</v>
+      </c>
+      <c r="H9">
+        <v>-0.98499999999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.20599999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10">
         <v>185</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>0.20699999999999999</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="1">
         <v>0.08</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>0.222</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <v>35.898000000000003</v>
+      </c>
+      <c r="H10">
+        <v>-0.98499999999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.16400000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11">
         <v>240</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>0.16200000000000001</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="1">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G11">
+        <v>35.898000000000003</v>
+      </c>
+      <c r="H11">
+        <v>-0.98499999999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12">
         <v>300</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>0.13300000000000001</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="1">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="1">
         <v>0.155</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G12">
+        <v>35.898000000000003</v>
+      </c>
+      <c r="H12">
+        <v>-0.98499999999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13">
         <v>1.5</v>
       </c>
-      <c r="C13" s="1">
+      <c r="D13" s="1">
         <v>14.62</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E13" s="1">
         <v>0.115</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <v>14.62</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G13">
+        <v>21.716999999999999</v>
+      </c>
+      <c r="H13">
+        <v>-0.98599999999999999</v>
+      </c>
+      <c r="I13">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14">
         <v>2.5</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>8.77</v>
       </c>
-      <c r="D14" s="1">
+      <c r="E14" s="1">
         <v>0.11</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="1">
         <v>8.77</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G14">
+        <v>21.716999999999999</v>
+      </c>
+      <c r="H14">
+        <v>-0.98599999999999999</v>
+      </c>
+      <c r="I14">
+        <v>7.41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15">
         <v>4</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>5.48</v>
       </c>
-      <c r="D15" s="1">
+      <c r="E15" s="1">
         <v>0.107</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F15" s="1">
         <v>5.48</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G15">
+        <v>21.716999999999999</v>
+      </c>
+      <c r="H15">
+        <v>-0.98599999999999999</v>
+      </c>
+      <c r="I15">
+        <v>4.6100000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16">
         <v>6</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>3.66</v>
       </c>
-      <c r="D16" s="1">
+      <c r="E16" s="1">
         <v>0.1</v>
       </c>
-      <c r="E16" s="1">
+      <c r="F16" s="1">
         <v>3.66</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G16">
+        <v>21.716999999999999</v>
+      </c>
+      <c r="H16">
+        <v>-0.98599999999999999</v>
+      </c>
+      <c r="I16">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17">
         <v>10</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>2.2440000000000002</v>
       </c>
-      <c r="D17" s="1">
+      <c r="E17" s="1">
         <v>9.4E-2</v>
       </c>
-      <c r="E17" s="1">
+      <c r="F17" s="1">
         <v>2.246</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G17">
+        <v>21.716999999999999</v>
+      </c>
+      <c r="H17">
+        <v>-0.98599999999999999</v>
+      </c>
+      <c r="I17">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18">
         <v>16</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>1.415</v>
       </c>
-      <c r="D18" s="1">
+      <c r="E18" s="1">
         <v>0.09</v>
       </c>
-      <c r="E18" s="1">
+      <c r="F18" s="1">
         <v>1.4179999999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G18">
+        <v>21.716999999999999</v>
+      </c>
+      <c r="H18">
+        <v>-0.98599999999999999</v>
+      </c>
+      <c r="I18">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19">
         <v>25</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>0.89800000000000002</v>
       </c>
-      <c r="D19" s="1">
+      <c r="E19" s="1">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="E19" s="1">
+      <c r="F19" s="1">
         <v>0.90200000000000002</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G19">
+        <v>21.716999999999999</v>
+      </c>
+      <c r="H19">
+        <v>-0.98599999999999999</v>
+      </c>
+      <c r="I19">
+        <v>0.72699999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20">
         <v>35</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>0.65200000000000002</v>
       </c>
-      <c r="D20" s="1">
+      <c r="E20" s="1">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="E20" s="1">
+      <c r="F20" s="1">
         <v>0.65700000000000003</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G20">
+        <v>21.716999999999999</v>
+      </c>
+      <c r="H20">
+        <v>-0.98599999999999999</v>
+      </c>
+      <c r="I20">
+        <v>0.52400000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21">
         <v>50</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.48199999999999998</v>
       </c>
-      <c r="D21" s="1">
+      <c r="E21" s="1">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="E21" s="1">
+      <c r="F21" s="1">
         <v>0.48899999999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G21">
+        <v>21.716999999999999</v>
+      </c>
+      <c r="H21">
+        <v>-0.98599999999999999</v>
+      </c>
+      <c r="I21">
+        <v>0.38700000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22">
         <v>70</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.33600000000000002</v>
       </c>
-      <c r="D22" s="1">
+      <c r="E22" s="1">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="E22" s="1">
+      <c r="F22" s="1">
         <v>0.34599999999999997</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G22">
+        <v>21.716999999999999</v>
+      </c>
+      <c r="H22">
+        <v>-0.98599999999999999</v>
+      </c>
+      <c r="I22">
+        <v>0.26800000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23">
         <v>95</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>0.24399999999999999</v>
       </c>
-      <c r="D23" s="1">
+      <c r="E23" s="1">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="E23" s="1">
+      <c r="F23" s="1">
         <v>0.25700000000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G23">
+        <v>21.716999999999999</v>
+      </c>
+      <c r="H23">
+        <v>-0.98599999999999999</v>
+      </c>
+      <c r="I23">
+        <v>0.193</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24">
         <v>120</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>0.19500000000000001</v>
       </c>
-      <c r="D24" s="1">
+      <c r="E24" s="1">
         <v>0.08</v>
       </c>
-      <c r="E24" s="1">
+      <c r="F24" s="1">
         <v>0.21099999999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G24">
+        <v>21.716999999999999</v>
+      </c>
+      <c r="H24">
+        <v>-0.98599999999999999</v>
+      </c>
+      <c r="I24">
+        <v>0.153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25">
         <v>150</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>0.155</v>
       </c>
-      <c r="D25" s="1">
+      <c r="E25" s="1">
         <v>0.08</v>
       </c>
-      <c r="E25" s="1">
+      <c r="F25" s="1">
         <v>0.17399999999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G25">
+        <v>21.716999999999999</v>
+      </c>
+      <c r="H25">
+        <v>-0.98599999999999999</v>
+      </c>
+      <c r="I25">
+        <v>0.124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26">
         <v>185</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>0.125</v>
       </c>
-      <c r="D26" s="1">
+      <c r="E26" s="1">
         <v>0.08</v>
       </c>
-      <c r="E26" s="1">
+      <c r="F26" s="1">
         <v>0.14799999999999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G26">
+        <v>21.716999999999999</v>
+      </c>
+      <c r="H26">
+        <v>-0.98599999999999999</v>
+      </c>
+      <c r="I26">
+        <v>9.9099999999999994E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27">
         <v>240</v>
       </c>
-      <c r="C27" s="2">
+      <c r="D27" s="2">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="D27" s="1">
+      <c r="E27" s="1">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="E27" s="1">
+      <c r="F27" s="1">
         <v>0.124</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G27">
+        <v>21.716999999999999</v>
+      </c>
+      <c r="H27">
+        <v>-0.98599999999999999</v>
+      </c>
+      <c r="I27">
+        <v>7.5399999999999995E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28">
         <v>300</v>
       </c>
-      <c r="C28" s="2">
+      <c r="D28" s="2">
         <v>7.8E-2</v>
       </c>
-      <c r="D28" s="1">
+      <c r="E28" s="1">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="E28" s="1">
+      <c r="F28" s="1">
         <v>0.111</v>
+      </c>
+      <c r="G28">
+        <v>21.716999999999999</v>
+      </c>
+      <c r="H28">
+        <v>-0.98599999999999999</v>
+      </c>
+      <c r="I28">
+        <v>6.0100000000000001E-2</v>
       </c>
     </row>
   </sheetData>
